--- a/result/with_base/134/arousal/s13_6.xlsx
+++ b/result/with_base/134/arousal/s13_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8208705484867096</v>
       </c>
       <c r="C2" t="n">
-        <v>41726.58984375</v>
+        <v>11317.5439453125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8659090941602533</v>
+        <v>0.8069852941176471</v>
       </c>
       <c r="E2" t="n">
-        <v>41730.83913352273</v>
+        <v>11318.76045496324</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8627232015132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40949.80859375</v>
+        <v>11027.1591796875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8865909088741649</v>
+        <v>0.8653492647058824</v>
       </c>
       <c r="E3" t="n">
-        <v>40950.72798295454</v>
+        <v>11026.92681525735</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.875</v>
       </c>
       <c r="C4" t="n">
-        <v>40177.162109375</v>
+        <v>10734.1806640625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9271590872244402</v>
+        <v>0.8862263665479773</v>
       </c>
       <c r="E4" t="n">
-        <v>40177.34375</v>
+        <v>10733.82795266544</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.8833705484867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39413.453125</v>
+        <v>10446.220703125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9331818168813532</v>
+        <v>0.9066439060603871</v>
       </c>
       <c r="E5" t="n">
-        <v>39414.12961647727</v>
+        <v>10445.67170266544</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.8828125</v>
       </c>
       <c r="C6" t="n">
-        <v>38660.953125</v>
+        <v>10164.447265625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9497727264057506</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="E6" t="n">
-        <v>38661.00603693182</v>
+        <v>10163.39412913603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37920.06640625</v>
+        <v>9887.0771484375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9573863527991555</v>
+        <v>0.9094012590015635</v>
       </c>
       <c r="E7" t="n">
-        <v>37919.74254261364</v>
+        <v>9886.019358915441</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.8783482015132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37190.244140625</v>
+        <v>9616.03466796875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.972727277062156</v>
+        <v>0.9067095588235294</v>
       </c>
       <c r="E8" t="n">
-        <v>37189.51278409091</v>
+        <v>9614.808249080883</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C9" t="n">
-        <v>36473.638671875</v>
+        <v>9348.89208984375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9667045365680348</v>
+        <v>0.9436055667260114</v>
       </c>
       <c r="E9" t="n">
-        <v>36472.86115056818</v>
+        <v>9348.350528492647</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.92578125</v>
       </c>
       <c r="C10" t="n">
-        <v>35767.904296875</v>
+        <v>9089.12353515625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9818181937391107</v>
+        <v>0.9615283608436584</v>
       </c>
       <c r="E10" t="n">
-        <v>35767.35120738636</v>
+        <v>9088.358455882353</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C11" t="n">
-        <v>35075.12890625</v>
+        <v>8835.54150390625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9805681922219016</v>
+        <v>0.9689469547832713</v>
       </c>
       <c r="E11" t="n">
-        <v>35074.63174715909</v>
+        <v>8834.782513786764</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9308035671710968</v>
       </c>
       <c r="C12" t="n">
-        <v>34394.771484375</v>
+        <v>8587.94873046875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9807954647324302</v>
+        <v>0.9702599784907173</v>
       </c>
       <c r="E12" t="n">
-        <v>34393.83771306818</v>
+        <v>8587.185661764706</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.92578125</v>
       </c>
       <c r="C13" t="n">
-        <v>33726.314453125</v>
+        <v>8346.5380859375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9852272759784352</v>
+        <v>0.9701286764705882</v>
       </c>
       <c r="E13" t="n">
-        <v>33725.10440340909</v>
+        <v>8345.556583180147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33069.5390625</v>
+        <v>8110.41845703125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9836363792419434</v>
+        <v>0.9717699569814345</v>
       </c>
       <c r="E14" t="n">
-        <v>33068.44744318182</v>
+        <v>8109.841997931985</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32424.5009765625</v>
+        <v>7880.4130859375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9782694332739886</v>
       </c>
       <c r="E15" t="n">
-        <v>32423.53533380682</v>
+        <v>7879.737678079044</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.93359375</v>
       </c>
       <c r="C16" t="n">
-        <v>31791.3583984375</v>
+        <v>7656.132568359375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9751181707662695</v>
       </c>
       <c r="E16" t="n">
-        <v>31790.580078125</v>
+        <v>7655.483369715073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31169.94921875</v>
+        <v>7437.364501953125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9877272844314575</v>
+        <v>0.9757746843730702</v>
       </c>
       <c r="E17" t="n">
-        <v>31169.18110795454</v>
+        <v>7436.803452435662</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.93359375</v>
       </c>
       <c r="C18" t="n">
-        <v>30559.7001953125</v>
+        <v>7224.23193359375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9812237409984365</v>
       </c>
       <c r="E18" t="n">
-        <v>30559.00071022727</v>
+        <v>7223.55850758272</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C19" t="n">
-        <v>29961.5986328125</v>
+        <v>7016.4296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9847727417945862</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E19" t="n">
-        <v>29960.36416903409</v>
+        <v>7015.831973805147</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C20" t="n">
-        <v>29373.3466796875</v>
+        <v>6813.964111328125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9816832998219658</v>
       </c>
       <c r="E20" t="n">
-        <v>29372.49360795454</v>
+        <v>6813.443388097427</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28796.5908203125</v>
+        <v>6616.92578125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E21" t="n">
-        <v>28795.83327414773</v>
+        <v>6616.316061580882</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9375</v>
       </c>
       <c r="C22" t="n">
-        <v>28230.91015625</v>
+        <v>6424.774169921875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9836528371362125</v>
       </c>
       <c r="E22" t="n">
-        <v>28229.88014914773</v>
+        <v>6424.24267578125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.92578125</v>
       </c>
       <c r="C23" t="n">
-        <v>27675.05078125</v>
+        <v>6237.918212890625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E23" t="n">
-        <v>27674.22567471591</v>
+        <v>6237.210650275735</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C24" t="n">
-        <v>27129.884765625</v>
+        <v>6055.488525390625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E24" t="n">
-        <v>27129.05184659091</v>
+        <v>6055.026970358456</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26594.8818359375</v>
+        <v>5878.516845703125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.984112395959742</v>
       </c>
       <c r="E25" t="n">
-        <v>26593.93678977273</v>
+        <v>5877.758272058823</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26069.5576171875</v>
+        <v>5705.525634765625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E26" t="n">
-        <v>26068.78213778409</v>
+        <v>5705.13631663603</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9263392984867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25554.3017578125</v>
+        <v>5537.677490234375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E27" t="n">
-        <v>25553.47531960227</v>
+        <v>5537.091567095588</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C28" t="n">
-        <v>25048.51953125</v>
+        <v>5373.94921875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E28" t="n">
-        <v>25047.80397727273</v>
+        <v>5373.570168887868</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24552.3544921875</v>
+        <v>5214.8359375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E29" t="n">
-        <v>24551.61310369318</v>
+        <v>5214.329905790441</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C30" t="n">
-        <v>24065.234375</v>
+        <v>5059.936767578125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E30" t="n">
-        <v>24064.64612926136</v>
+        <v>5059.420237821691</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9386160671710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23587.544921875</v>
+        <v>4909.094970703125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E31" t="n">
-        <v>23586.85990767046</v>
+        <v>4908.641659007353</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C32" t="n">
-        <v>23118.6474609375</v>
+        <v>4762.272216796875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E32" t="n">
-        <v>23118.00799005682</v>
+        <v>4761.990119485294</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9296875</v>
       </c>
       <c r="C33" t="n">
-        <v>22658.3359375</v>
+        <v>4619.731689453125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.980764182174907</v>
       </c>
       <c r="E33" t="n">
-        <v>22657.927734375</v>
+        <v>4619.265337775735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22207.0771484375</v>
+        <v>4480.78564453125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E34" t="n">
-        <v>22206.48757102273</v>
+        <v>4480.359375</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21764.0146484375</v>
+        <v>4345.609375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E35" t="n">
-        <v>21763.47159090909</v>
+        <v>4345.304630055147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21329.521484375</v>
+        <v>4214.2294921875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E36" t="n">
-        <v>21328.77325994318</v>
+        <v>4213.955595128677</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C37" t="n">
-        <v>20902.638671875</v>
+        <v>4086.496215820312</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9934348744504592</v>
       </c>
       <c r="E37" t="n">
-        <v>20902.25923295454</v>
+        <v>4086.158619600184</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20484.255859375</v>
+        <v>3962.099487304688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E38" t="n">
-        <v>20483.82990056818</v>
+        <v>3961.884636374081</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C39" t="n">
-        <v>20073.84375</v>
+        <v>3841.396484375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E39" t="n">
-        <v>20073.31605113636</v>
+        <v>3841.050996668198</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19670.8701171875</v>
+        <v>3723.834838867188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E40" t="n">
-        <v>19670.49928977273</v>
+        <v>3723.532212201287</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19275.69140625</v>
+        <v>3609.537841796875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E41" t="n">
-        <v>19275.30610795454</v>
+        <v>3609.247242647059</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9296875</v>
       </c>
       <c r="C42" t="n">
-        <v>18888.0615234375</v>
+        <v>3498.625854492188</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9827337194891537</v>
       </c>
       <c r="E42" t="n">
-        <v>18887.53497869318</v>
+        <v>3498.194608800552</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9296875</v>
       </c>
       <c r="C43" t="n">
-        <v>18507.6220703125</v>
+        <v>3390.522216796875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9814863450386945</v>
       </c>
       <c r="E43" t="n">
-        <v>18507.07546164773</v>
+        <v>3390.207849839154</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18134.3408203125</v>
+        <v>3285.30224609375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E44" t="n">
-        <v>18133.830078125</v>
+        <v>3285.153923483456</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.93359375</v>
       </c>
       <c r="C45" t="n">
-        <v>17768.046875</v>
+        <v>3183.486450195312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E45" t="n">
-        <v>17767.62286931818</v>
+        <v>3183.175924862132</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17408.5625</v>
+        <v>3084.361572265625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9767594547832713</v>
       </c>
       <c r="E46" t="n">
-        <v>17408.33504971591</v>
+        <v>3083.98335535386</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C47" t="n">
-        <v>17056.439453125</v>
+        <v>2987.7333984375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9944196413545048</v>
       </c>
       <c r="E47" t="n">
-        <v>17055.92862215909</v>
+        <v>2987.545740464154</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9469866156578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16710.4150390625</v>
+        <v>2894.130249023438</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E48" t="n">
-        <v>16710.095703125</v>
+        <v>2893.904842601103</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16371.26513671875</v>
+        <v>2803.032958984375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9938944332739886</v>
       </c>
       <c r="E49" t="n">
-        <v>16370.85946377841</v>
+        <v>2802.86767578125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C50" t="n">
-        <v>16038.3583984375</v>
+        <v>2714.591186523438</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E50" t="n">
-        <v>16038.03258167614</v>
+        <v>2714.41410558364</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,872 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15711.9033203125</v>
+        <v>2628.696411132812</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9852284648839165</v>
       </c>
       <c r="E51" t="n">
-        <v>15711.51908735795</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15391.58251953125</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15391.23046875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15077.49951171875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15077.04137073864</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14769.08251953125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14768.75932173295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14466.6484375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14466.36958451705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14170.10595703125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14169.76242897727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13879.0966796875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13878.79669744318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13593.75732421875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13593.40047940341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13313.8876953125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13313.42143110795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13039.00830078125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13038.79367897727</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9724999964237213</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12769.68359375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12769.43208451705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12505.3662109375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12505.23055752841</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12246.36376953125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12246.07297585227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11992.1640625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11991.91104403409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11742.8134765625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11742.63059303977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11498.33154296875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11498.14959161932</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11258.51611328125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11258.34525923295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11023.4267578125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11023.17782315341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10792.69873046875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10792.51056463068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9749999940395355</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10566.52587890625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10566.30504261364</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10344.685546875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10344.47611860795</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10127.2041015625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10126.9560546875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9913.84814453125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9913.630415482954</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9704.62841796875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9704.449662642046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9499.5322265625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9499.340465198864</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9298.34033203125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9298.197709517046</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9101.1494140625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9100.975763494318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8907.73095703125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8907.588245738636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8718.11767578125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8717.97647372159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8532.173828125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8532.063032670454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8349.857421875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8349.771928267046</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.303030303030303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5151515151515151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.004830917874396135</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.00966183574879227</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7575757575757576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.00966183574879227</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05797101449275362</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05797101449275362</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.1159420289855072</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1159420289855072</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8454106280193237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8599033816425121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8840579710144928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8840579710144928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9420289855072463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9420289855072463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9903381642512077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9903381642512077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9951690821256038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9951690821256038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9928268189137754</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2628.504710477941</v>
       </c>
     </row>
   </sheetData>
